--- a/microservice/serverURL.xlsx
+++ b/microservice/serverURL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sean/Desktop/Stevens/690 software studio/SSW690Project/microservice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEA86C9A-1083-1B4F-BCB0-D4DFB448B71B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562978A8-7D39-FB40-9304-7527BE6CF260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{CCCD09A4-18C6-E64F-BDB2-A2C4C6A74B84}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CCCD09A4-18C6-E64F-BDB2-A2C4C6A74B84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>group</t>
   </si>
@@ -39,9 +39,6 @@
     <t>getGroupName</t>
   </si>
   <si>
-    <t>8084/group/getGroupName/{groupId}</t>
-  </si>
-  <si>
     <t>String groupName</t>
   </si>
   <si>
@@ -60,15 +57,9 @@
     <t>createGroup</t>
   </si>
   <si>
-    <t>boolean</t>
-  </si>
-  <si>
     <t>getGroup</t>
   </si>
   <si>
-    <t>8084/group/getGroup/{groupId}</t>
-  </si>
-  <si>
     <t>Group group</t>
   </si>
   <si>
@@ -90,9 +81,6 @@
     <t>getTotalCheckoutState</t>
   </si>
   <si>
-    <t>8084/group/getTotalCheckoutState/{groupId}</t>
-  </si>
-  <si>
     <t>getUserCheckoutComfirm</t>
   </si>
   <si>
@@ -108,25 +96,73 @@
     <t>T</t>
   </si>
   <si>
-    <t>8084/group/createGroup/{groupName}_{userList}</t>
-  </si>
-  <si>
-    <t>8084/group/addMemberToGroup/{groupId}_{userList}</t>
-  </si>
-  <si>
-    <t>8084/group/getIndivitualTotalBalance/{groupId}_{userId}</t>
-  </si>
-  <si>
-    <t>8084/group/checkout/{groupId}_{userId}</t>
-  </si>
-  <si>
-    <t>8084/group/checkoutComfirm/{groupId}_{userId}_{state}</t>
-  </si>
-  <si>
-    <t>8084/group/getUserCheckoutComfirm/{groupId}_{userId}</t>
-  </si>
-  <si>
     <t>float totalBalance</t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>8084/group/</t>
+  </si>
+  <si>
+    <t>8084/group/{groupId}</t>
+  </si>
+  <si>
+    <t>8084/group/name/{groupId}</t>
+  </si>
+  <si>
+    <t>8084/group/users</t>
+  </si>
+  <si>
+    <t>8084/group/checkout/{groupId}</t>
+  </si>
+  <si>
+    <t>input body</t>
+  </si>
+  <si>
+    <t>String groupName, int[] usersList</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int[] usersList, int groupId</t>
+  </si>
+  <si>
+    <t>8084/group/checkout/{groupId}/{userId}</t>
+  </si>
+  <si>
+    <t>8084/group/balance/{groupId}/{userId}</t>
+  </si>
+  <si>
+    <t>cancelCheckoutComfirm</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>8084/group/checkout/cancel/{groupId}/{userId}</t>
+  </si>
+  <si>
+    <t>getUserCancelCheckout</t>
+  </si>
+  <si>
+    <t>8084/group/checkout/cancel/{groupId}</t>
+  </si>
+  <si>
+    <t>int userId</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>TP</t>
   </si>
 </sst>
 </file>
@@ -478,37 +514,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624D0BFE-F7B1-024F-9FFD-32EB15BA65EB}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="2" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="5" width="49.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -516,107 +558,189 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="G12" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/microservice/serverURL.xlsx
+++ b/microservice/serverURL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sean/Desktop/Stevens/690 software studio/SSW690Project/microservice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562978A8-7D39-FB40-9304-7527BE6CF260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BB7109-6C13-5E4C-B45C-CB54255159DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CCCD09A4-18C6-E64F-BDB2-A2C4C6A74B84}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t>group</t>
   </si>
@@ -162,14 +162,74 @@
     <t>TF</t>
   </si>
   <si>
-    <t>TP</t>
+    <t>bill</t>
+  </si>
+  <si>
+    <t>getBill</t>
+  </si>
+  <si>
+    <t>getBillGeneral</t>
+  </si>
+  <si>
+    <t>createBill</t>
+  </si>
+  <si>
+    <t>billAddComfirm</t>
+  </si>
+  <si>
+    <t>getTotalAddState</t>
+  </si>
+  <si>
+    <t>cancelAddComfirm</t>
+  </si>
+  <si>
+    <t>getUserAddComfirm</t>
+  </si>
+  <si>
+    <t>getUserCancelAdd</t>
+  </si>
+  <si>
+    <t>8085/bill/general/{billId}</t>
+  </si>
+  <si>
+    <t>8085/bill/{billId}</t>
+  </si>
+  <si>
+    <t>8085/bill</t>
+  </si>
+  <si>
+    <t>8085/bill/add/{billId}</t>
+  </si>
+  <si>
+    <t>8085/bill/add/{billId}/{userId}</t>
+  </si>
+  <si>
+    <t>transfer</t>
+  </si>
+  <si>
+    <t>bill state chage</t>
+  </si>
+  <si>
+    <t>bill state</t>
+  </si>
+  <si>
+    <t>delete transfer</t>
+  </si>
+  <si>
+    <t>how to deal the bill been deleted?</t>
+  </si>
+  <si>
+    <t>8085/bill/cancel/{billId}/{userId}</t>
+  </si>
+  <si>
+    <t>8085/bill/cancel/{billId}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -177,16 +237,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -194,12 +273,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624D0BFE-F7B1-024F-9FFD-32EB15BA65EB}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,223 +681,468 @@
     <col min="6" max="6" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="H8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
+      <c r="D18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/microservice/serverURL.xlsx
+++ b/microservice/serverURL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sean/Desktop/Stevens/690 software studio/SSW690Project/microservice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BB7109-6C13-5E4C-B45C-CB54255159DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0BB5A4-72AC-8C44-AC13-73E607A265FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CCCD09A4-18C6-E64F-BDB2-A2C4C6A74B84}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
   <si>
     <t>group</t>
   </si>
@@ -205,12 +205,6 @@
   </si>
   <si>
     <t>transfer</t>
-  </si>
-  <si>
-    <t>bill state chage</t>
-  </si>
-  <si>
-    <t>bill state</t>
   </si>
   <si>
     <t>delete transfer</t>
@@ -329,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -354,6 +348,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624D0BFE-F7B1-024F-9FFD-32EB15BA65EB}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -681,7 +677,7 @@
     <col min="6" max="6" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -704,7 +700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -725,7 +721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -744,7 +740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -765,7 +761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -786,7 +782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -801,9 +797,11 @@
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>15</v>
@@ -824,11 +822,8 @@
       <c r="H7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -849,11 +844,8 @@
       <c r="H8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>16</v>
@@ -872,7 +864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -891,7 +883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>39</v>
@@ -909,8 +901,9 @@
       <c r="G11" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
         <v>36</v>
@@ -928,8 +921,9 @@
       <c r="G12" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
@@ -947,8 +941,9 @@
       <c r="G13" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="7" t="s">
         <v>44</v>
@@ -964,8 +959,9 @@
       <c r="G14" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="7" t="s">
         <v>46</v>
@@ -982,7 +978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="7" t="s">
         <v>48</v>
@@ -1042,13 +1038,15 @@
         <v>24</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="H19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1060,11 +1058,13 @@
         <v>23</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>

--- a/microservice/serverURL.xlsx
+++ b/microservice/serverURL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sean/Desktop/Stevens/690 software studio/SSW690Project/microservice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0BB5A4-72AC-8C44-AC13-73E607A265FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68381E1-B460-3643-AA29-7A28FB6C812E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CCCD09A4-18C6-E64F-BDB2-A2C4C6A74B84}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{CCCD09A4-18C6-E64F-BDB2-A2C4C6A74B84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
   <si>
     <t>group</t>
   </si>
@@ -69,9 +69,6 @@
     <t>checkout</t>
   </si>
   <si>
-    <t>List&lt;String&gt;</t>
-  </si>
-  <si>
     <t>checkoutComfirm</t>
   </si>
   <si>
@@ -126,15 +123,6 @@
     <t>input body</t>
   </si>
   <si>
-    <t>String groupName, int[] usersList</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int[] usersList, int groupId</t>
-  </si>
-  <si>
     <t>8084/group/checkout/{groupId}/{userId}</t>
   </si>
   <si>
@@ -204,19 +192,55 @@
     <t>8085/bill/add/{billId}/{userId}</t>
   </si>
   <si>
-    <t>transfer</t>
-  </si>
-  <si>
-    <t>delete transfer</t>
-  </si>
-  <si>
-    <t>how to deal the bill been deleted?</t>
-  </si>
-  <si>
     <t>8085/bill/cancel/{billId}/{userId}</t>
   </si>
   <si>
     <t>8085/bill/cancel/{billId}</t>
+  </si>
+  <si>
+    <t>Bill bill</t>
+  </si>
+  <si>
+    <t>{
+	"groupId" : 21,
+    "date" : 20190303,
+    "amount" : 150,
+    "billName" : "drinkl",
+    "description" : "lot ?? here",
+    "receipt" : "my sss",
+    "usersList" : [1, 3, 5, 6, 7],
+    "payerId" : 7
+}</t>
+  </si>
+  <si>
+    <t>totalAddState</t>
+  </si>
+  <si>
+    <t>addState</t>
+  </si>
+  <si>
+    <t>{
+	"groupName":"billTest1",
+	"usersList" :[1, 3, 4, 5, 6, 7]
+}</t>
+  </si>
+  <si>
+    <t>{
+	"groupId" : 13,
+	"usersList" : [20, 18]	
+}</t>
+  </si>
+  <si>
+    <t>Map&lt;Integer, Map&lt;Integer, Float&gt;&gt;</t>
+  </si>
+  <si>
+    <t>getTrasfer</t>
+  </si>
+  <si>
+    <t>8084/checkout/{groupId}/{userId}</t>
+  </si>
+  <si>
+    <t>Map&lt;Integer, Float&gt;</t>
   </si>
 </sst>
 </file>
@@ -259,7 +283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -283,16 +307,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -302,19 +328,100 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -323,33 +430,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,484 +798,459 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624D0BFE-F7B1-024F-9FFD-32EB15BA65EB}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="5" width="49.83203125" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="2" max="3" width="22.33203125" style="6" customWidth="1"/>
+    <col min="4" max="5" width="49.83203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="40.83203125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="G21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/microservice/serverURL.xlsx
+++ b/microservice/serverURL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sean/Desktop/Stevens/690 software studio/SSW690Project/microservice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68381E1-B460-3643-AA29-7A28FB6C812E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD206D7-FBB1-B742-9731-4D1C3AAA531C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{CCCD09A4-18C6-E64F-BDB2-A2C4C6A74B84}"/>
   </bookViews>
@@ -237,10 +237,10 @@
     <t>getTrasfer</t>
   </si>
   <si>
-    <t>8084/checkout/{groupId}/{userId}</t>
-  </si>
-  <si>
     <t>Map&lt;Integer, Float&gt;</t>
+  </si>
+  <si>
+    <t>8084/checkout/trans/{groupId}/{userId}</t>
   </si>
 </sst>
 </file>
@@ -460,28 +460,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624D0BFE-F7B1-024F-9FFD-32EB15BA65EB}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -838,7 +838,7 @@
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -854,13 +854,13 @@
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,13 +874,13 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -896,13 +896,13 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -918,13 +918,13 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -938,13 +938,13 @@
       <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -958,13 +958,13 @@
       <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,13 +978,13 @@
       <c r="F8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="1" t="s">
         <v>62</v>
       </c>
@@ -992,19 +992,19 @@
         <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1018,13 +1018,13 @@
       <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1038,13 +1038,13 @@
       <c r="F11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1058,13 +1058,13 @@
       <c r="F12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1078,13 +1078,13 @@
       <c r="F13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>38</v>
       </c>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1100,13 +1100,13 @@
       <c r="F14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
@@ -1120,13 +1120,13 @@
       <c r="F15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" ht="170" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
@@ -1142,13 +1142,13 @@
       <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
@@ -1162,13 +1162,13 @@
       <c r="F17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
@@ -1182,13 +1182,13 @@
       <c r="F18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
@@ -1202,13 +1202,13 @@
       <c r="F19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
@@ -1222,27 +1222,27 @@
       <c r="F20" s="2">
         <v>1</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="15" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="5"/>

--- a/microservice/serverURL.xlsx
+++ b/microservice/serverURL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sean/Desktop/Stevens/690 software studio/SSW690Project/microservice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stevens\SSW690Project\microservice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD206D7-FBB1-B742-9731-4D1C3AAA531C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C5A62F-A8CD-4526-B339-D65703A5DC3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{CCCD09A4-18C6-E64F-BDB2-A2C4C6A74B84}"/>
+    <workbookView xWindow="4440" yWindow="1485" windowWidth="21600" windowHeight="11385" xr2:uid="{CCCD09A4-18C6-E64F-BDB2-A2C4C6A74B84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t>group</t>
   </si>
@@ -105,100 +105,94 @@
     <t>post</t>
   </si>
   <si>
-    <t>8084/group/</t>
-  </si>
-  <si>
-    <t>8084/group/{groupId}</t>
+    <t>8084/group/users</t>
+  </si>
+  <si>
+    <t>8084/group/checkout/{groupId}</t>
+  </si>
+  <si>
+    <t>input body</t>
+  </si>
+  <si>
+    <t>8084/group/checkout/{groupId}/{userId}</t>
+  </si>
+  <si>
+    <t>cancelCheckoutComfirm</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>getUserCancelCheckout</t>
+  </si>
+  <si>
+    <t>8084/group/checkout/cancel/{groupId}</t>
+  </si>
+  <si>
+    <t>int userId</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>bill</t>
+  </si>
+  <si>
+    <t>getBill</t>
+  </si>
+  <si>
+    <t>getBillGeneral</t>
+  </si>
+  <si>
+    <t>createBill</t>
+  </si>
+  <si>
+    <t>billAddComfirm</t>
+  </si>
+  <si>
+    <t>getTotalAddState</t>
+  </si>
+  <si>
+    <t>cancelAddComfirm</t>
+  </si>
+  <si>
+    <t>getUserCancelAdd</t>
+  </si>
+  <si>
+    <t>8085/bill/add/{billId}/{userId}</t>
+  </si>
+  <si>
+    <t>Bill bill</t>
+  </si>
+  <si>
+    <t>totalAddState</t>
+  </si>
+  <si>
+    <t>addState</t>
+  </si>
+  <si>
+    <t>{
+	"groupId" : 13,
+	"usersList" : [20, 18]	
+}</t>
+  </si>
+  <si>
+    <t>Map&lt;Integer, Map&lt;Integer, Float&gt;&gt;</t>
+  </si>
+  <si>
+    <t>getTrasfer</t>
+  </si>
+  <si>
+    <t>8085/bill/general/{billId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8085/bill/{billId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>8084/group/name/{groupId}</t>
-  </si>
-  <si>
-    <t>8084/group/users</t>
-  </si>
-  <si>
-    <t>8084/group/checkout/{groupId}</t>
-  </si>
-  <si>
-    <t>input body</t>
-  </si>
-  <si>
-    <t>8084/group/checkout/{groupId}/{userId}</t>
-  </si>
-  <si>
-    <t>8084/group/balance/{groupId}/{userId}</t>
-  </si>
-  <si>
-    <t>cancelCheckoutComfirm</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>8084/group/checkout/cancel/{groupId}/{userId}</t>
-  </si>
-  <si>
-    <t>getUserCancelCheckout</t>
-  </si>
-  <si>
-    <t>8084/group/checkout/cancel/{groupId}</t>
-  </si>
-  <si>
-    <t>int userId</t>
-  </si>
-  <si>
-    <t>TF</t>
-  </si>
-  <si>
-    <t>bill</t>
-  </si>
-  <si>
-    <t>getBill</t>
-  </si>
-  <si>
-    <t>getBillGeneral</t>
-  </si>
-  <si>
-    <t>createBill</t>
-  </si>
-  <si>
-    <t>billAddComfirm</t>
-  </si>
-  <si>
-    <t>getTotalAddState</t>
-  </si>
-  <si>
-    <t>cancelAddComfirm</t>
-  </si>
-  <si>
-    <t>getUserAddComfirm</t>
-  </si>
-  <si>
-    <t>getUserCancelAdd</t>
-  </si>
-  <si>
-    <t>8085/bill/general/{billId}</t>
-  </si>
-  <si>
-    <t>8085/bill/{billId}</t>
-  </si>
-  <si>
-    <t>8085/bill</t>
-  </si>
-  <si>
-    <t>8085/bill/add/{billId}</t>
-  </si>
-  <si>
-    <t>8085/bill/add/{billId}/{userId}</t>
-  </si>
-  <si>
-    <t>8085/bill/cancel/{billId}/{userId}</t>
-  </si>
-  <si>
-    <t>8085/bill/cancel/{billId}</t>
-  </si>
-  <si>
-    <t>Bill bill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -211,55 +205,92 @@
     "usersList" : [1, 3, 5, 6, 7],
     "payerId" : 7
 }</t>
-  </si>
-  <si>
-    <t>totalAddState</t>
-  </si>
-  <si>
-    <t>addState</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8085/bill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8084/group/checkout/{groupId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8084/group/checkout/cancel/{groupId}/{userId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8084/group/checkout/trans/{groupId}/{userId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8084/group/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
 	"groupName":"billTest1",
 	"usersList" :[1, 3, 4, 5, 6, 7]
 }</t>
-  </si>
-  <si>
-    <t>{
-	"groupId" : 13,
-	"usersList" : [20, 18]	
-}</t>
-  </si>
-  <si>
-    <t>Map&lt;Integer, Map&lt;Integer, Float&gt;&gt;</t>
-  </si>
-  <si>
-    <t>getTrasfer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8085/bill/add/{billId}/{userId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8084/group/balance/{groupId}/{userId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Map&lt;Integer, Float&gt;</t>
-  </si>
-  <si>
-    <t>8084/checkout/trans/{groupId}/{userId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8084/group/{groupId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8085/bill/add/{billId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserAddComfirm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8085/bill/cancel/{billId}/{userId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8085/bill/cancel/{billId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -486,7 +517,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -502,7 +533,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -800,20 +831,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624D0BFE-F7B1-024F-9FFD-32EB15BA65EB}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="6"/>
-    <col min="2" max="3" width="22.33203125" style="6" customWidth="1"/>
-    <col min="4" max="5" width="49.83203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="40.83203125" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="10.875" style="6"/>
+    <col min="2" max="3" width="22.375" style="6" customWidth="1"/>
+    <col min="4" max="5" width="49.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="40.875" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
@@ -827,7 +858,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>6</v>
@@ -837,7 +868,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -848,7 +879,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -859,7 +890,7 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -868,7 +899,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -879,7 +910,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -888,10 +919,10 @@
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -901,7 +932,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
         <v>17</v>
@@ -910,10 +941,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -923,7 +954,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -932,7 +963,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -943,7 +974,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -952,18 +983,18 @@
         <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -972,38 +1003,38 @@
         <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="1" t="s">
         <v>15</v>
@@ -1012,7 +1043,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
@@ -1023,7 +1054,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -1032,7 +1063,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
@@ -1043,101 +1074,101 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
@@ -1147,76 +1178,76 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2">
@@ -1227,20 +1258,20 @@
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>19</v>
@@ -1252,7 +1283,8 @@
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A21"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>